--- a/gams/python/results/Q18/res_sum_Q_inrO_RA.xlsx
+++ b/gams/python/results/Q18/res_sum_Q_inrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65674EFD-E220-455A-A107-A713856D71CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE60A45-67D1-456D-8761-BDBE66E1557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{73BDBF50-0C21-40F9-907B-640C87B5CB65}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{73BDBF50-0C21-40F9-907B-640C87B5CB65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,174 +36,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>q3</t>
   </si>
   <si>
+    <t>q16</t>
+  </si>
+  <si>
+    <t>q17</t>
+  </si>
+  <si>
+    <t>q18</t>
+  </si>
+  <si>
+    <t>q23</t>
+  </si>
+  <si>
+    <t>q27</t>
+  </si>
+  <si>
+    <t>q30</t>
+  </si>
+  <si>
+    <t>q31</t>
+  </si>
+  <si>
+    <t>q32</t>
+  </si>
+  <si>
+    <t>q34</t>
+  </si>
+  <si>
+    <t>q35</t>
+  </si>
+  <si>
+    <t>q36</t>
+  </si>
+  <si>
+    <t>q37</t>
+  </si>
+  <si>
+    <t>q38</t>
+  </si>
+  <si>
+    <t>q39</t>
+  </si>
+  <si>
+    <t>q40</t>
+  </si>
+  <si>
+    <t>q41</t>
+  </si>
+  <si>
+    <t>q42</t>
+  </si>
+  <si>
+    <t>q43</t>
+  </si>
+  <si>
+    <t>q44</t>
+  </si>
+  <si>
+    <t>q45</t>
+  </si>
+  <si>
+    <t>q46</t>
+  </si>
+  <si>
+    <t>q47</t>
+  </si>
+  <si>
+    <t>q48</t>
+  </si>
+  <si>
+    <t>q49</t>
+  </si>
+  <si>
+    <t>q50</t>
+  </si>
+  <si>
+    <t>q52</t>
+  </si>
+  <si>
+    <t>q53</t>
+  </si>
+  <si>
+    <t>q54</t>
+  </si>
+  <si>
+    <t>q55</t>
+  </si>
+  <si>
+    <t>q56</t>
+  </si>
+  <si>
+    <t>q57</t>
+  </si>
+  <si>
+    <t>q58</t>
+  </si>
+  <si>
+    <t>q59</t>
+  </si>
+  <si>
+    <t>q60</t>
+  </si>
+  <si>
+    <t>q61</t>
+  </si>
+  <si>
+    <t>q63</t>
+  </si>
+  <si>
+    <t>q64</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q62</t>
+  </si>
+  <si>
+    <t>q76</t>
+  </si>
+  <si>
+    <t>q77</t>
+  </si>
+  <si>
+    <t>q86</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q19</t>
+  </si>
+  <si>
+    <t>q21</t>
+  </si>
+  <si>
+    <t>q22</t>
+  </si>
+  <si>
+    <t>q25</t>
+  </si>
+  <si>
+    <t>q26</t>
+  </si>
+  <si>
+    <t>q28</t>
+  </si>
+  <si>
+    <t>q29</t>
+  </si>
+  <si>
+    <t>q33</t>
+  </si>
+  <si>
+    <t>q51</t>
+  </si>
+  <si>
+    <t>q65</t>
+  </si>
+  <si>
+    <t>q66</t>
+  </si>
+  <si>
+    <t>q68</t>
+  </si>
+  <si>
+    <t>q69</t>
+  </si>
+  <si>
+    <t>q70</t>
+  </si>
+  <si>
+    <t>q74</t>
+  </si>
+  <si>
+    <t>q75</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
     <t>q5</t>
   </si>
   <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q16</t>
-  </si>
-  <si>
-    <t>q17</t>
-  </si>
-  <si>
-    <t>q18</t>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>q15</t>
   </si>
   <si>
     <t>q20</t>
   </si>
   <si>
-    <t>q21</t>
-  </si>
-  <si>
-    <t>q22</t>
-  </si>
-  <si>
-    <t>q23</t>
-  </si>
-  <si>
-    <t>q24</t>
-  </si>
-  <si>
-    <t>q25</t>
-  </si>
-  <si>
-    <t>q26</t>
-  </si>
-  <si>
-    <t>q27</t>
-  </si>
-  <si>
-    <t>q28</t>
-  </si>
-  <si>
-    <t>q29</t>
-  </si>
-  <si>
-    <t>q30</t>
-  </si>
-  <si>
-    <t>q31</t>
-  </si>
-  <si>
-    <t>q32</t>
-  </si>
-  <si>
-    <t>q33</t>
-  </si>
-  <si>
-    <t>q34</t>
-  </si>
-  <si>
-    <t>q35</t>
-  </si>
-  <si>
-    <t>q36</t>
-  </si>
-  <si>
-    <t>q37</t>
-  </si>
-  <si>
-    <t>q38</t>
-  </si>
-  <si>
-    <t>q39</t>
-  </si>
-  <si>
-    <t>q40</t>
-  </si>
-  <si>
-    <t>q41</t>
-  </si>
-  <si>
-    <t>q42</t>
-  </si>
-  <si>
-    <t>q43</t>
-  </si>
-  <si>
-    <t>q44</t>
-  </si>
-  <si>
-    <t>q45</t>
-  </si>
-  <si>
-    <t>q46</t>
-  </si>
-  <si>
-    <t>q47</t>
-  </si>
-  <si>
-    <t>q48</t>
-  </si>
-  <si>
-    <t>q49</t>
-  </si>
-  <si>
-    <t>q50</t>
-  </si>
-  <si>
-    <t>q51</t>
-  </si>
-  <si>
-    <t>q52</t>
-  </si>
-  <si>
-    <t>q53</t>
-  </si>
-  <si>
-    <t>q54</t>
-  </si>
-  <si>
-    <t>q55</t>
-  </si>
-  <si>
-    <t>q56</t>
-  </si>
-  <si>
-    <t>q57</t>
-  </si>
-  <si>
-    <t>q58</t>
-  </si>
-  <si>
-    <t>q59</t>
-  </si>
-  <si>
-    <t>q60</t>
-  </si>
-  <si>
-    <t>q61</t>
-  </si>
-  <si>
-    <t>q63</t>
-  </si>
-  <si>
-    <t>q64</t>
-  </si>
-  <si>
-    <t>q65</t>
-  </si>
-  <si>
-    <t>q68</t>
-  </si>
-  <si>
-    <t>q69</t>
+    <t>q71</t>
   </si>
   <si>
     <t>q72</t>
@@ -212,13 +257,10 @@
     <t>q73</t>
   </si>
   <si>
-    <t>q74</t>
-  </si>
-  <si>
-    <t>q79</t>
-  </si>
-  <si>
     <t>q80</t>
+  </si>
+  <si>
+    <t>q88</t>
   </si>
   <si>
     <t>q90</t>
@@ -605,202 +647,230 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -824,189 +894,231 @@
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.25800000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="B2">
         <v>3.1E-2</v>
       </c>
       <c r="C2">
-        <v>2.1999999999999999E-2</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D2">
-        <v>0.252</v>
+        <v>0.33606857607411666</v>
       </c>
       <c r="E2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.6160000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.58800000000000008</v>
+      </c>
+      <c r="K2">
+        <v>0.40900000000000003</v>
+      </c>
+      <c r="L2">
+        <v>1.1190000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="O2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="F2">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="G2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="J2">
+      <c r="P2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Q2">
         <v>0.55800000000000005</v>
       </c>
-      <c r="K2">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="L2">
+      <c r="R2">
+        <v>1.109</v>
+      </c>
+      <c r="S2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="M2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="N2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O2">
+      <c r="T2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="P2">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="Q2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="R2">
+      <c r="U2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="S2">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="T2">
-        <v>0.81800000000000006</v>
-      </c>
-      <c r="U2">
-        <v>0.50600000000000001</v>
-      </c>
       <c r="V2">
-        <v>0.93300000000000005</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="W2">
-        <v>0.93800000000000006</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="X2">
-        <v>1.1970000000000001</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.39900000000000002</v>
+        <v>0.94700000000000006</v>
       </c>
       <c r="Z2">
+        <v>1.069</v>
+      </c>
+      <c r="AA2">
+        <v>1.0030000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>1.06</v>
+      </c>
+      <c r="AG2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AA2">
+      <c r="AH2">
+        <v>1.8050000000000002</v>
+      </c>
+      <c r="AI2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AB2">
-        <v>1.8050000000000002</v>
-      </c>
-      <c r="AC2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="AD2">
+      <c r="AJ2">
         <v>0.77100000000000002</v>
       </c>
-      <c r="AE2">
+      <c r="AK2">
         <v>1.5960000000000001</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
         <v>1.7990000000000002</v>
       </c>
-      <c r="AG2">
-        <v>0.95900000000000007</v>
-      </c>
-      <c r="AH2">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="AI2">
-        <v>2.1550000000000002</v>
-      </c>
-      <c r="AJ2">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="AK2">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="AL2">
-        <v>1.1970000000000001</v>
-      </c>
       <c r="AM2">
-        <v>1.9950000000000001</v>
+        <v>0.96400000000000008</v>
       </c>
       <c r="AN2">
-        <v>1.9950000000000001</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="AO2">
-        <v>2.4569999999999999</v>
+        <v>2.5540000000000003</v>
       </c>
       <c r="AP2">
-        <v>1.3540000000000001</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="AQ2">
         <v>1.1970000000000001</v>
       </c>
       <c r="AR2">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>1.272</v>
+      </c>
+      <c r="AX2">
         <v>1.9950000000000001</v>
       </c>
-      <c r="AS2">
+      <c r="AY2">
         <v>1.5960000000000001</v>
       </c>
-      <c r="AT2">
+      <c r="AZ2">
         <v>1.9930000000000001</v>
       </c>
-      <c r="AU2">
-        <v>1.1260000000000001</v>
-      </c>
-      <c r="AV2">
+      <c r="BA2">
+        <v>1.129</v>
+      </c>
+      <c r="BB2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="AW2">
+      <c r="BC2">
         <v>1.1970000000000001</v>
       </c>
-      <c r="AX2">
+      <c r="BD2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="BE2">
+        <v>0.43300000000000005</v>
+      </c>
+      <c r="BF2">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="BH2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AY2">
-        <v>0.43200000000000005</v>
-      </c>
-      <c r="AZ2">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="BA2">
+      <c r="BI2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="BK2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="BB2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="BC2">
+      <c r="BL2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="BD2">
+      <c r="BM2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="BE2">
-        <v>0.376</v>
-      </c>
-      <c r="BF2">
-        <v>0.42800000000000005</v>
-      </c>
-      <c r="BG2">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="BH2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="BI2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="BJ2">
+      <c r="BN2">
+        <v>0.56900000000000006</v>
+      </c>
+      <c r="BO2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="BP2">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="BQ2">
+        <v>0.183</v>
+      </c>
+      <c r="BR2">
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="BS2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="BT2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="BU2">
+        <v>2E-3</v>
+      </c>
+      <c r="BV2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BW2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="BX2">
         <v>0.39900000000000002</v>
       </c>
     </row>
